--- a/Opponent_List.xlsx
+++ b/Opponent_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachary.fort\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DB25164-4252-4479-AAD3-AA40CD1125D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2075F2C-B6C6-49A4-917F-6727CEB08D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F0057C93-4968-4F1A-BA91-6746AD9C435D}"/>
   </bookViews>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,48 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="47">
   <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>OPP 2-5</t>
-  </si>
-  <si>
-    <t>OPP 2-12</t>
-  </si>
-  <si>
-    <t>OPP 2-19</t>
-  </si>
-  <si>
-    <t>OPP 2-26</t>
-  </si>
-  <si>
-    <t>OPP 3-4</t>
-  </si>
-  <si>
-    <t>OPP3-11</t>
-  </si>
-  <si>
-    <t>OPP3-19</t>
-  </si>
-  <si>
-    <t>OPP3-26</t>
-  </si>
-  <si>
-    <t>OPP4-2</t>
-  </si>
-  <si>
-    <t>OPP4-9</t>
-  </si>
-  <si>
-    <t>OPP4-16</t>
-  </si>
-  <si>
-    <t>OPP4-23</t>
-  </si>
-  <si>
-    <t>OPP4-30</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
@@ -171,18 +128,68 @@
     <t>NYK</t>
   </si>
   <si>
-    <t>OPP5-14</t>
-  </si>
-  <si>
-    <t>OPP5-16</t>
+    <t>5-16</t>
+  </si>
+  <si>
+    <t>5-14</t>
+  </si>
+  <si>
+    <t>4-30</t>
+  </si>
+  <si>
+    <t>4-23</t>
+  </si>
+  <si>
+    <t>4-16</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-26</t>
+  </si>
+  <si>
+    <t>3-19</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-26</t>
+  </si>
+  <si>
+    <t>2-19</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>TEAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,11 +217,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,1562 +541,1563 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
-        <v>46</v>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
         <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>34</v>
-      </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>29</v>
-      </c>
       <c r="N16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
       <c r="M17" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O18" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" t="s">
         <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" t="s">
-        <v>15</v>
-      </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" t="s">
-        <v>40</v>
-      </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P24" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>21</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" t="s">
-        <v>15</v>
-      </c>
-      <c r="N25" t="s">
-        <v>36</v>
-      </c>
       <c r="O25" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
-      </c>
       <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
         <v>26</v>
       </c>
-      <c r="J26" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" t="s">
-        <v>40</v>
-      </c>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="O26" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K27" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" t="s">
-        <v>40</v>
-      </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" t="s">
-        <v>29</v>
-      </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O28" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
         <v>18</v>
-      </c>
-      <c r="P30" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>